--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H2">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.806414908303641</v>
+        <v>0.8369776666666665</v>
       </c>
       <c r="N2">
-        <v>0.806414908303641</v>
+        <v>2.510933</v>
       </c>
       <c r="O2">
-        <v>0.07188999988531465</v>
+        <v>0.0694586718035551</v>
       </c>
       <c r="P2">
-        <v>0.07188999988531465</v>
+        <v>0.06945867180355511</v>
       </c>
       <c r="Q2">
-        <v>0.5510769067781079</v>
+        <v>0.6253219173423332</v>
       </c>
       <c r="R2">
-        <v>0.5510769067781079</v>
+        <v>5.627897256080999</v>
       </c>
       <c r="S2">
-        <v>0.002055211354385811</v>
+        <v>0.00215110370834091</v>
       </c>
       <c r="T2">
-        <v>0.002055211354385811</v>
+        <v>0.00215110370834091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H3">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.41824922194762</v>
+        <v>2.427350333333333</v>
       </c>
       <c r="N3">
-        <v>2.41824922194762</v>
+        <v>7.282051</v>
       </c>
       <c r="O3">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="P3">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="Q3">
-        <v>1.65255042699146</v>
+        <v>1.813519553689667</v>
       </c>
       <c r="R3">
-        <v>1.65255042699146</v>
+        <v>16.321675983207</v>
       </c>
       <c r="S3">
-        <v>0.006163096946131896</v>
+        <v>0.006238496570966903</v>
       </c>
       <c r="T3">
-        <v>0.006163096946131896</v>
+        <v>0.006238496570966903</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H4">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I4">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J4">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.99268055732846</v>
+        <v>8.785681666666667</v>
       </c>
       <c r="N4">
-        <v>7.99268055732846</v>
+        <v>26.357045</v>
       </c>
       <c r="O4">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="P4">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="Q4">
-        <v>5.461929873870369</v>
+        <v>6.563949701118333</v>
       </c>
       <c r="R4">
-        <v>5.461929873870369</v>
+        <v>59.07554731006499</v>
       </c>
       <c r="S4">
-        <v>0.02036997042621018</v>
+        <v>0.02257994826640466</v>
       </c>
       <c r="T4">
-        <v>0.02036997042621018</v>
+        <v>0.02257994826640466</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H5">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.806414908303641</v>
+        <v>0.8369776666666665</v>
       </c>
       <c r="N5">
-        <v>0.806414908303641</v>
+        <v>2.510933</v>
       </c>
       <c r="O5">
-        <v>0.07188999988531465</v>
+        <v>0.0694586718035551</v>
       </c>
       <c r="P5">
-        <v>0.07188999988531465</v>
+        <v>0.06945867180355511</v>
       </c>
       <c r="Q5">
-        <v>15.79949197290567</v>
+        <v>16.52712198470455</v>
       </c>
       <c r="R5">
-        <v>15.79949197290567</v>
+        <v>148.744097862341</v>
       </c>
       <c r="S5">
-        <v>0.05892334608265091</v>
+        <v>0.05685320217240653</v>
       </c>
       <c r="T5">
-        <v>0.05892334608265091</v>
+        <v>0.05685320217240653</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H6">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J6">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.41824922194762</v>
+        <v>2.427350333333333</v>
       </c>
       <c r="N6">
-        <v>2.41824922194762</v>
+        <v>7.282051</v>
       </c>
       <c r="O6">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="P6">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="Q6">
-        <v>47.37897176407432</v>
+        <v>47.93092654238079</v>
       </c>
       <c r="R6">
-        <v>47.37897176407432</v>
+        <v>431.3783388814271</v>
       </c>
       <c r="S6">
-        <v>0.1766972985639154</v>
+        <v>0.1648821046729543</v>
       </c>
       <c r="T6">
-        <v>0.1766972985639154</v>
+        <v>0.1648821046729543</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H7">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J7">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.99268055732846</v>
+        <v>8.785681666666667</v>
       </c>
       <c r="N7">
-        <v>7.99268055732846</v>
+        <v>26.357045</v>
       </c>
       <c r="O7">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="P7">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="Q7">
-        <v>156.5946896655854</v>
+        <v>173.4837599694406</v>
       </c>
       <c r="R7">
-        <v>156.5946896655854</v>
+        <v>1561.353839724965</v>
       </c>
       <c r="S7">
-        <v>0.5840113789540832</v>
+        <v>0.5967831113184688</v>
       </c>
       <c r="T7">
-        <v>0.5840113789540832</v>
+        <v>0.5967831113184688</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H8">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I8">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J8">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.806414908303641</v>
+        <v>0.8369776666666665</v>
       </c>
       <c r="N8">
-        <v>0.806414908303641</v>
+        <v>2.510933</v>
       </c>
       <c r="O8">
-        <v>0.07188999988531465</v>
+        <v>0.0694586718035551</v>
       </c>
       <c r="P8">
-        <v>0.07188999988531465</v>
+        <v>0.06945867180355511</v>
       </c>
       <c r="Q8">
-        <v>2.925754541036639</v>
+        <v>3.039065070688999</v>
       </c>
       <c r="R8">
-        <v>2.925754541036639</v>
+        <v>27.35158563620099</v>
       </c>
       <c r="S8">
-        <v>0.01091144244827793</v>
+        <v>0.01045436592280766</v>
       </c>
       <c r="T8">
-        <v>0.01091144244827793</v>
+        <v>0.01045436592280766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H9">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I9">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J9">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.41824922194762</v>
+        <v>2.427350333333333</v>
       </c>
       <c r="N9">
-        <v>2.41824922194762</v>
+        <v>7.282051</v>
       </c>
       <c r="O9">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="P9">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="Q9">
-        <v>8.773651838052984</v>
+        <v>8.813706632982999</v>
       </c>
       <c r="R9">
-        <v>8.773651838052984</v>
+        <v>79.32335969684699</v>
       </c>
       <c r="S9">
-        <v>0.03272085738888517</v>
+        <v>0.03031909884594589</v>
       </c>
       <c r="T9">
-        <v>0.03272085738888517</v>
+        <v>0.0303190988459459</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H10">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I10">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J10">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.99268055732846</v>
+        <v>8.785681666666667</v>
       </c>
       <c r="N10">
-        <v>7.99268055732846</v>
+        <v>26.357045</v>
       </c>
       <c r="O10">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="P10">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="Q10">
-        <v>28.99825039798736</v>
+        <v>31.900801345985</v>
       </c>
       <c r="R10">
-        <v>28.99825039798736</v>
+        <v>287.107212113865</v>
       </c>
       <c r="S10">
-        <v>0.1081473978354595</v>
+        <v>0.1097385685217041</v>
       </c>
       <c r="T10">
-        <v>0.1081473978354595</v>
+        <v>0.1097385685217041</v>
       </c>
     </row>
   </sheetData>
